--- a/doc/user-guide/cookbook/demand/demand-policies.xlsx
+++ b/doc/user-guide/cookbook/demand/demand-policies.xlsx
@@ -5,31 +5,30 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frePPLe\Documents\frePPLe_comunity\doc\cookbook\demand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community-4.0\doc\user-guide\cookbook\demand\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="135" yWindow="480" windowWidth="22718" windowHeight="9203" tabRatio="768" activeTab="3"/>
+    <workbookView xWindow="135" yWindow="480" windowWidth="22718" windowHeight="9203" tabRatio="768" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="itemoperation" sheetId="20" r:id="rId1"/>
-    <sheet name="buffer" sheetId="1" r:id="rId2"/>
-    <sheet name="customer" sheetId="4" r:id="rId3"/>
-    <sheet name="demand" sheetId="5" r:id="rId4"/>
-    <sheet name="operationmaterial" sheetId="6" r:id="rId5"/>
-    <sheet name="item" sheetId="7" r:id="rId6"/>
-    <sheet name="location" sheetId="9" r:id="rId7"/>
-    <sheet name="operation" sheetId="11" r:id="rId8"/>
-    <sheet name="bucket date" sheetId="17" r:id="rId9"/>
-    <sheet name="bucket" sheetId="18" r:id="rId10"/>
-    <sheet name="parameter" sheetId="19" r:id="rId11"/>
+    <sheet name="buffer" sheetId="1" r:id="rId1"/>
+    <sheet name="customer" sheetId="4" r:id="rId2"/>
+    <sheet name="demand" sheetId="5" r:id="rId3"/>
+    <sheet name="operationmaterial" sheetId="6" r:id="rId4"/>
+    <sheet name="item" sheetId="7" r:id="rId5"/>
+    <sheet name="location" sheetId="9" r:id="rId6"/>
+    <sheet name="operation" sheetId="11" r:id="rId7"/>
+    <sheet name="bucket date" sheetId="17" r:id="rId8"/>
+    <sheet name="bucket" sheetId="18" r:id="rId9"/>
+    <sheet name="parameter" sheetId="19" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14150" uniqueCount="6484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14136" uniqueCount="6484">
   <si>
     <t>name</t>
   </si>
@@ -19823,92 +19822,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>6447</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6444</v>
+      </c>
+      <c r="D2" t="s">
         <v>6448</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6449</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>6444</v>
       </c>
-      <c r="C2" t="s">
-        <v>6459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>6454</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6450</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>6444</v>
       </c>
-      <c r="C3" t="s">
-        <v>6460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>6455</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6451</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>6444</v>
       </c>
-      <c r="C4" t="s">
-        <v>6461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>6456</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>6452</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>6444</v>
       </c>
-      <c r="C5" t="s">
-        <v>6462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>6457</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6453</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>6444</v>
       </c>
-      <c r="C6" t="s">
-        <v>6463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
         <v>6458</v>
       </c>
-      <c r="B7" t="s">
-        <v>6444</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6464</v>
+      <c r="E7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -19917,90 +19959,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="33.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6483</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6434</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6435</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6436</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6437</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6438</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -20055,144 +20013,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6447</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6444</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6448</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6449</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6444</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6454</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>6450</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6444</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6455</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>6451</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6444</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6456</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>6452</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6444</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6457</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>6453</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6444</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6458</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20244,11 +20064,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -20460,7 +20280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -20663,12 +20483,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20738,7 +20558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -20770,21 +20590,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20792,103 +20613,106 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6470</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6444</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f>2*24*3600</f>
         <v>172800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6471</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6444</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">2*24*3600</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">2*24*3600</f>
         <v>172800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6472</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6444</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>172800</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6473</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6444</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>172800</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6474</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>6444</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>172800</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6475</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>6444</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>172800</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6459</v>
       </c>
@@ -20896,14 +20720,17 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
+        <v>6448</v>
+      </c>
+      <c r="D8" t="s">
         <v>6444</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f>7*24*3600</f>
         <v>604800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6460</v>
       </c>
@@ -20911,14 +20738,17 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
+        <v>6454</v>
+      </c>
+      <c r="D9" t="s">
         <v>6444</v>
       </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D13" si="1">7*24*3600</f>
+      <c r="E9">
+        <f t="shared" ref="E9:E13" si="1">7*24*3600</f>
         <v>604800</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6461</v>
       </c>
@@ -20926,14 +20756,17 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
+        <v>6455</v>
+      </c>
+      <c r="D10" t="s">
         <v>6444</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>604800</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6462</v>
       </c>
@@ -20941,14 +20774,17 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
+        <v>6456</v>
+      </c>
+      <c r="D11" t="s">
         <v>6444</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>604800</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6463</v>
       </c>
@@ -20956,14 +20792,17 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
+        <v>6457</v>
+      </c>
+      <c r="D12" t="s">
         <v>6444</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>604800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6464</v>
       </c>
@@ -20971,9 +20810,12 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
+        <v>6458</v>
+      </c>
+      <c r="D13" t="s">
         <v>6444</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>604800</v>
       </c>
@@ -20983,7 +20825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3484"/>
   <sheetViews>
@@ -69777,4 +69619,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="33.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6437</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6438</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/user-guide/cookbook/demand/demand-policies.xlsx
+++ b/doc/user-guide/cookbook/demand/demand-policies.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\user-guide\cookbook\demand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community\doc\user-guide\cookbook\demand\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D43D7C-2BCA-4DBA-BB89-D640EDADD678}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="480" windowWidth="22725" windowHeight="9218" tabRatio="768" activeTab="7"/>
+    <workbookView xWindow="1740" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,19 @@
     <sheet name="operation" sheetId="11" r:id="rId7"/>
     <sheet name="parameter" sheetId="19" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -112,25 +120,7 @@
     <t>Minimum Shipment</t>
   </si>
   <si>
-    <t>product 1 @ factory</t>
-  </si>
-  <si>
     <t>product 1</t>
-  </si>
-  <si>
-    <t>product 2 @ factory</t>
-  </si>
-  <si>
-    <t>product 3 @ factory</t>
-  </si>
-  <si>
-    <t>product 4 @ factory</t>
-  </si>
-  <si>
-    <t>product 5 @ factory</t>
-  </si>
-  <si>
-    <t>product 6 @ factory</t>
   </si>
   <si>
     <t>product 2</t>
@@ -223,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,6 +339,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -384,6 +391,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,135 +583,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="E2">
+      <c r="D3">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7">
+      <c r="D7">
         <v>10</v>
       </c>
     </row>
@@ -697,51 +699,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -750,26 +752,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -795,21 +797,21 @@
         <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -824,18 +826,18 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -854,18 +856,18 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -883,18 +885,18 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -912,18 +914,18 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -945,18 +947,18 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -977,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -987,22 +989,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1016,12 +1018,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1030,12 +1032,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1044,12 +1046,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1058,12 +1060,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1072,12 +1074,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1086,12 +1088,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1100,12 +1102,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -1114,12 +1116,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -1128,12 +1130,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -1142,12 +1144,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -1156,12 +1158,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -1170,12 +1172,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1190,20 +1192,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1211,52 +1213,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
       <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1265,20 +1267,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1297,21 +1299,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1328,9 +1330,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1343,9 +1345,9 @@
         <v>172800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -1358,9 +1360,9 @@
         <v>172800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1373,9 +1375,9 @@
         <v>172800</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1388,9 +1390,9 @@
         <v>172800</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1403,9 +1405,9 @@
         <v>172800</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1418,15 +1420,15 @@
         <v>172800</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1436,15 +1438,15 @@
         <v>604800</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -1454,15 +1456,15 @@
         <v>604800</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1472,15 +1474,15 @@
         <v>604800</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -1490,15 +1492,15 @@
         <v>604800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -1508,15 +1510,15 @@
         <v>604800</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -1532,21 +1534,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1568,7 +1570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
